--- a/docs/sprint 2 - 1003 To 2203/LogTime.xlsx
+++ b/docs/sprint 2 - 1003 To 2203/LogTime.xlsx
@@ -26,9 +26,60 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1" uniqueCount="1">
-  <si>
-    <t>Quan</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="18">
+  <si>
+    <t>Nhận update từ phía A.Hoàng</t>
+  </si>
+  <si>
+    <t>Mypage</t>
+  </si>
+  <si>
+    <t>History</t>
+  </si>
+  <si>
+    <t>Playment</t>
+  </si>
+  <si>
+    <t>Column1</t>
+  </si>
+  <si>
+    <t>10/03/2014</t>
+  </si>
+  <si>
+    <t>11/03/2014</t>
+  </si>
+  <si>
+    <t>12/03/2014</t>
+  </si>
+  <si>
+    <t>13/03/2014</t>
+  </si>
+  <si>
+    <t>14/03/2014</t>
+  </si>
+  <si>
+    <t>15/03/2014</t>
+  </si>
+  <si>
+    <t>17/03/2014</t>
+  </si>
+  <si>
+    <t>18/03/2014</t>
+  </si>
+  <si>
+    <t>19/03/2014</t>
+  </si>
+  <si>
+    <t>20/03/2014</t>
+  </si>
+  <si>
+    <t>21/03/2014</t>
+  </si>
+  <si>
+    <t>22/03/2014</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Task quản lý </t>
   </si>
 </sst>
 </file>
@@ -64,13 +115,21 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="2">
+    <dxf>
+      <numFmt numFmtId="19" formatCode="dd/mm/yyyy"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="19" formatCode="dd/mm/yyyy"/>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -81,6 +140,50 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Table24" displayName="Table24" ref="A1:M5" totalsRowShown="0" headerRowDxfId="0">
+  <autoFilter ref="A1:M5"/>
+  <tableColumns count="13">
+    <tableColumn id="1" name="Column1"/>
+    <tableColumn id="2" name="10/03/2014"/>
+    <tableColumn id="3" name="11/03/2014"/>
+    <tableColumn id="4" name="12/03/2014"/>
+    <tableColumn id="5" name="13/03/2014"/>
+    <tableColumn id="6" name="14/03/2014"/>
+    <tableColumn id="7" name="15/03/2014"/>
+    <tableColumn id="8" name="17/03/2014"/>
+    <tableColumn id="9" name="18/03/2014"/>
+    <tableColumn id="10" name="19/03/2014"/>
+    <tableColumn id="11" name="20/03/2014"/>
+    <tableColumn id="12" name="21/03/2014"/>
+    <tableColumn id="13" name="22/03/2014"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleLight9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Table2" displayName="Table2" ref="A1:M5" totalsRowShown="0" headerRowDxfId="1">
+  <autoFilter ref="A1:M5"/>
+  <tableColumns count="13">
+    <tableColumn id="1" name="Column1"/>
+    <tableColumn id="2" name="10/03/2014"/>
+    <tableColumn id="3" name="11/03/2014"/>
+    <tableColumn id="4" name="12/03/2014"/>
+    <tableColumn id="5" name="13/03/2014"/>
+    <tableColumn id="6" name="14/03/2014"/>
+    <tableColumn id="7" name="15/03/2014"/>
+    <tableColumn id="8" name="17/03/2014"/>
+    <tableColumn id="9" name="18/03/2014"/>
+    <tableColumn id="10" name="19/03/2014"/>
+    <tableColumn id="11" name="20/03/2014"/>
+    <tableColumn id="12" name="21/03/2014"/>
+    <tableColumn id="13" name="22/03/2014"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleLight9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -346,33 +449,206 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="A1:M2"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G10" sqref="G10"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H16" sqref="H16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="27.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="13" width="13" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>0</v>
+        <v>4</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>17</v>
+      </c>
+      <c r="B2">
+        <v>1</v>
+      </c>
+      <c r="C2">
+        <v>1</v>
+      </c>
+      <c r="D2">
+        <v>1</v>
+      </c>
+      <c r="E2">
+        <v>1</v>
+      </c>
+      <c r="F2">
+        <v>1</v>
+      </c>
+      <c r="G2">
+        <v>1</v>
+      </c>
+      <c r="H2">
+        <v>1</v>
+      </c>
+      <c r="I2">
+        <v>1</v>
+      </c>
+      <c r="J2">
+        <v>1</v>
+      </c>
+      <c r="K2">
+        <v>1</v>
+      </c>
+      <c r="L2">
+        <v>1</v>
+      </c>
+      <c r="M2">
+        <v>1</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <tableParts count="1">
+    <tablePart r:id="rId1"/>
+  </tableParts>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:R5"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F11" sqref="F11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="27.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="13" width="12.85546875" customWidth="1"/>
+    <col min="14" max="18" width="10.7109375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="N1" s="1"/>
+      <c r="O1" s="1"/>
+      <c r="P1" s="1"/>
+      <c r="Q1" s="1"/>
+      <c r="R1" s="1"/>
+    </row>
+    <row r="2" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2">
+        <v>4</v>
+      </c>
+      <c r="C2">
+        <v>4</v>
+      </c>
+      <c r="D2">
+        <v>4</v>
+      </c>
+      <c r="E2">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>3</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <tableParts count="1">
+    <tablePart r:id="rId1"/>
+  </tableParts>
 </worksheet>
 </file>
 

--- a/docs/sprint 2 - 1003 To 2203/LogTime.xlsx
+++ b/docs/sprint 2 - 1003 To 2203/LogTime.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7905" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7905" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="ANLT" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="27">
   <si>
     <t>Nhận update từ phía A.Hoàng</t>
   </si>
@@ -80,6 +80,33 @@
   </si>
   <si>
     <t xml:space="preserve">Task quản lý </t>
+  </si>
+  <si>
+    <t>Sitemap</t>
+  </si>
+  <si>
+    <t>list retailer</t>
+  </si>
+  <si>
+    <t>Details</t>
+  </si>
+  <si>
+    <t>Ghép nối các màn hình</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Core phần đa ngôn ngữ </t>
+  </si>
+  <si>
+    <t>Core masterpage</t>
+  </si>
+  <si>
+    <t>Login</t>
+  </si>
+  <si>
+    <t>Mock-up wish list</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ORM </t>
   </si>
 </sst>
 </file>
@@ -122,7 +149,10 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="2">
+  <dxfs count="3">
+    <dxf>
+      <numFmt numFmtId="19" formatCode="dd/mm/yyyy"/>
+    </dxf>
     <dxf>
       <numFmt numFmtId="19" formatCode="dd/mm/yyyy"/>
     </dxf>
@@ -143,7 +173,7 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Table24" displayName="Table24" ref="A1:M5" totalsRowShown="0" headerRowDxfId="0">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Table24" displayName="Table24" ref="A1:M5" totalsRowShown="0" headerRowDxfId="2">
   <autoFilter ref="A1:M5"/>
   <tableColumns count="13">
     <tableColumn id="1" name="Column1"/>
@@ -165,8 +195,30 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Table2" displayName="Table2" ref="A1:M5" totalsRowShown="0" headerRowDxfId="1">
-  <autoFilter ref="A1:M5"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Table2" displayName="Table2" ref="A1:M9" totalsRowShown="0" headerRowDxfId="1">
+  <autoFilter ref="A1:M9"/>
+  <tableColumns count="13">
+    <tableColumn id="1" name="Column1"/>
+    <tableColumn id="2" name="10/03/2014"/>
+    <tableColumn id="3" name="11/03/2014"/>
+    <tableColumn id="4" name="12/03/2014"/>
+    <tableColumn id="5" name="13/03/2014"/>
+    <tableColumn id="6" name="14/03/2014"/>
+    <tableColumn id="7" name="15/03/2014"/>
+    <tableColumn id="8" name="17/03/2014"/>
+    <tableColumn id="9" name="18/03/2014"/>
+    <tableColumn id="10" name="19/03/2014"/>
+    <tableColumn id="11" name="20/03/2014"/>
+    <tableColumn id="12" name="21/03/2014"/>
+    <tableColumn id="13" name="22/03/2014"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleLight9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table22" displayName="Table22" ref="A1:M9" totalsRowShown="0" headerRowDxfId="0">
+  <autoFilter ref="A1:M9"/>
   <tableColumns count="13">
     <tableColumn id="1" name="Column1"/>
     <tableColumn id="2" name="10/03/2014"/>
@@ -449,10 +501,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M2"/>
+  <dimension ref="A1:M5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H16" sqref="H16"/>
+      <selection activeCell="G15" sqref="G15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -543,6 +595,36 @@
         <v>1</v>
       </c>
     </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>22</v>
+      </c>
+      <c r="B3">
+        <v>3</v>
+      </c>
+      <c r="C3">
+        <v>3</v>
+      </c>
+      <c r="D3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>23</v>
+      </c>
+      <c r="D4">
+        <v>1</v>
+      </c>
+      <c r="E4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>24</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <tableParts count="1">
@@ -553,10 +635,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:R5"/>
+  <dimension ref="A1:R9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F11" sqref="F11"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:M9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -616,18 +698,6 @@
       <c r="A2" t="s">
         <v>0</v>
       </c>
-      <c r="B2">
-        <v>4</v>
-      </c>
-      <c r="C2">
-        <v>4</v>
-      </c>
-      <c r="D2">
-        <v>4</v>
-      </c>
-      <c r="E2">
-        <v>4</v>
-      </c>
     </row>
     <row r="3" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
@@ -642,6 +712,118 @@
     <row r="5" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>18</v>
+      </c>
+      <c r="B6">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="7" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>19</v>
+      </c>
+      <c r="C7">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="8" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>20</v>
+      </c>
+      <c r="E8">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="9" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>21</v>
+      </c>
+      <c r="D9">
+        <v>4</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+  <tableParts count="1">
+    <tablePart r:id="rId2"/>
+  </tableParts>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:M3"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A4" sqref="A4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="27.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="13" width="13" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>25</v>
+      </c>
+      <c r="B2">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>26</v>
+      </c>
+      <c r="E3">
+        <v>4</v>
       </c>
     </row>
   </sheetData>
@@ -650,16 +832,4 @@
     <tablePart r:id="rId1"/>
   </tableParts>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>
--- a/docs/sprint 2 - 1003 To 2203/LogTime.xlsx
+++ b/docs/sprint 2 - 1003 To 2203/LogTime.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7905" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7905" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="ANLT" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="32">
   <si>
     <t>Nhận update từ phía A.Hoàng</t>
   </si>
@@ -103,10 +103,25 @@
     <t>Login</t>
   </si>
   <si>
-    <t>Mock-up wish list</t>
-  </si>
-  <si>
     <t xml:space="preserve">ORM </t>
+  </si>
+  <si>
+    <t>Framework</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tài liệu - Danh sách các màn hình sẽ làm </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Thời gian đã sử dụng </t>
+  </si>
+  <si>
+    <t>Mức độ Busy</t>
+  </si>
+  <si>
+    <t>Mock-up wishlist</t>
+  </si>
+  <si>
+    <t>16/03/2015</t>
   </si>
 </sst>
 </file>
@@ -173,8 +188,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Table24" displayName="Table24" ref="A1:M5" totalsRowShown="0" headerRowDxfId="2">
-  <autoFilter ref="A1:M5"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Table24" displayName="Table24" ref="A1:M7" totalsRowShown="0" headerRowDxfId="2">
+  <autoFilter ref="A1:M7"/>
   <tableColumns count="13">
     <tableColumn id="1" name="Column1"/>
     <tableColumn id="2" name="10/03/2014"/>
@@ -195,9 +210,9 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Table2" displayName="Table2" ref="A1:M9" totalsRowShown="0" headerRowDxfId="1">
-  <autoFilter ref="A1:M9"/>
-  <tableColumns count="13">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Table2" displayName="Table2" ref="A1:N9" totalsRowShown="0" headerRowDxfId="1">
+  <autoFilter ref="A1:N9"/>
+  <tableColumns count="14">
     <tableColumn id="1" name="Column1"/>
     <tableColumn id="2" name="10/03/2014"/>
     <tableColumn id="3" name="11/03/2014"/>
@@ -205,6 +220,7 @@
     <tableColumn id="5" name="13/03/2014"/>
     <tableColumn id="6" name="14/03/2014"/>
     <tableColumn id="7" name="15/03/2014"/>
+    <tableColumn id="14" name="16/03/2015"/>
     <tableColumn id="8" name="17/03/2014"/>
     <tableColumn id="9" name="18/03/2014"/>
     <tableColumn id="10" name="19/03/2014"/>
@@ -217,9 +233,9 @@
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table22" displayName="Table22" ref="A1:M9" totalsRowShown="0" headerRowDxfId="0">
-  <autoFilter ref="A1:M9"/>
-  <tableColumns count="13">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table22" displayName="Table22" ref="A1:N9" totalsRowShown="0" headerRowDxfId="0">
+  <autoFilter ref="A1:N9"/>
+  <tableColumns count="14">
     <tableColumn id="1" name="Column1"/>
     <tableColumn id="2" name="10/03/2014"/>
     <tableColumn id="3" name="11/03/2014"/>
@@ -227,6 +243,7 @@
     <tableColumn id="5" name="13/03/2014"/>
     <tableColumn id="6" name="14/03/2014"/>
     <tableColumn id="7" name="15/03/2014"/>
+    <tableColumn id="15" name="16/03/2015"/>
     <tableColumn id="8" name="17/03/2014"/>
     <tableColumn id="9" name="18/03/2014"/>
     <tableColumn id="10" name="19/03/2014"/>
@@ -501,15 +518,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M5"/>
+  <dimension ref="A1:M7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G15" sqref="G15"/>
+      <selection activeCell="H7" sqref="H7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="27.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="36.140625" customWidth="1"/>
     <col min="2" max="13" width="13" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -623,6 +640,25 @@
     <row r="5" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>24</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>26</v>
+      </c>
+      <c r="F6">
+        <v>3</v>
+      </c>
+      <c r="G6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>27</v>
+      </c>
+      <c r="G7">
+        <v>2</v>
       </c>
     </row>
   </sheetData>
@@ -635,20 +671,20 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:R9"/>
+  <dimension ref="A1:S13"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:M9"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H2" sqref="H2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="27.42578125" bestFit="1" customWidth="1"/>
-    <col min="2" max="13" width="12.85546875" customWidth="1"/>
-    <col min="14" max="18" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="14" width="12.85546875" customWidth="1"/>
+    <col min="15" max="19" width="10.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>4</v>
       </c>
@@ -671,50 +707,62 @@
         <v>10</v>
       </c>
       <c r="H1" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="I1" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="K1" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="L1" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="M1" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="N1" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="N1" s="1"/>
       <c r="O1" s="1"/>
       <c r="P1" s="1"/>
       <c r="Q1" s="1"/>
       <c r="R1" s="1"/>
-    </row>
-    <row r="2" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S1" s="1"/>
+    </row>
+    <row r="2" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="F2">
+        <v>2</v>
+      </c>
+      <c r="G2">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="F4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>18</v>
       </c>
@@ -722,7 +770,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>19</v>
       </c>
@@ -730,7 +778,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>20</v>
       </c>
@@ -738,12 +786,22 @@
         <v>4</v>
       </c>
     </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>21</v>
       </c>
       <c r="D9">
         <v>4</v>
+      </c>
+    </row>
+    <row r="12" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>29</v>
       </c>
     </row>
   </sheetData>
@@ -757,19 +815,21 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M3"/>
+  <dimension ref="A1:N3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H1" sqref="H1:H1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="27.42578125" bestFit="1" customWidth="1"/>
-    <col min="2" max="13" width="13" bestFit="1" customWidth="1"/>
+    <col min="2" max="7" width="13" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="13" customWidth="1"/>
+    <col min="9" max="14" width="13" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>4</v>
       </c>
@@ -792,44 +852,51 @@
         <v>10</v>
       </c>
       <c r="H1" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="I1" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="K1" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="L1" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="M1" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="N1" s="1" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="B2">
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E3">
         <v>4</v>
       </c>
+      <c r="H3">
+        <v>12</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
   <tableParts count="1">
-    <tablePart r:id="rId1"/>
+    <tablePart r:id="rId2"/>
   </tableParts>
 </worksheet>
 </file>
--- a/docs/sprint 2 - 1003 To 2203/LogTime.xlsx
+++ b/docs/sprint 2 - 1003 To 2203/LogTime.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\OTHER\Project-e\TFS\ProjectE\docs\sprint 2 - 1003 To 2203\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\OTHER\Project-e\Github\docs\sprint 2 - 1003 To 2203\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7905" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7905"/>
   </bookViews>
   <sheets>
     <sheet name="ANLT" sheetId="1" r:id="rId1"/>
@@ -520,8 +520,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M7"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H7" sqref="H7"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K13" sqref="K13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -640,6 +640,12 @@
     <row r="5" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>24</v>
+      </c>
+      <c r="H5">
+        <v>3</v>
+      </c>
+      <c r="J5">
+        <v>3</v>
       </c>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.25">
@@ -673,8 +679,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:S13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H2" sqref="H2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -741,6 +747,9 @@
         <v>2</v>
       </c>
       <c r="G2">
+        <v>4</v>
+      </c>
+      <c r="I2">
         <v>4</v>
       </c>
     </row>

--- a/docs/sprint 2 - 1003 To 2203/LogTime.xlsx
+++ b/docs/sprint 2 - 1003 To 2203/LogTime.xlsx
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="33">
   <si>
     <t>Nhận update từ phía A.Hoàng</t>
   </si>
@@ -122,6 +122,9 @@
   </si>
   <si>
     <t>16/03/2015</t>
+  </si>
+  <si>
+    <t>Common Category</t>
   </si>
 </sst>
 </file>
@@ -188,8 +191,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Table24" displayName="Table24" ref="A1:M7" totalsRowShown="0" headerRowDxfId="2">
-  <autoFilter ref="A1:M7"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Table24" displayName="Table24" ref="A1:M9" totalsRowShown="0" headerRowDxfId="2">
+  <autoFilter ref="A1:M9"/>
   <tableColumns count="13">
     <tableColumn id="1" name="Column1"/>
     <tableColumn id="2" name="10/03/2014"/>
@@ -518,10 +521,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M7"/>
+  <dimension ref="A1:M8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K13" sqref="K13"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="M21" sqref="M21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -645,6 +648,9 @@
         <v>3</v>
       </c>
       <c r="J5">
+        <v>2</v>
+      </c>
+      <c r="M5">
         <v>3</v>
       </c>
     </row>
@@ -665,6 +671,14 @@
       </c>
       <c r="G7">
         <v>2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>32</v>
+      </c>
+      <c r="M8">
+        <v>3</v>
       </c>
     </row>
   </sheetData>
@@ -680,7 +694,7 @@
   <dimension ref="A1:S13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F2" sqref="F2"/>
+      <selection activeCell="L7" sqref="L7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -786,12 +800,18 @@
       <c r="C7">
         <v>4</v>
       </c>
+      <c r="J7">
+        <v>4</v>
+      </c>
     </row>
     <row r="8" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>20</v>
       </c>
       <c r="E8">
+        <v>4</v>
+      </c>
+      <c r="K8">
         <v>4</v>
       </c>
     </row>
@@ -827,7 +847,7 @@
   <dimension ref="A1:N3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H1" sqref="H1:H1048576"/>
+      <selection activeCell="H5" sqref="H5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/docs/sprint 2 - 1003 To 2203/LogTime.xlsx
+++ b/docs/sprint 2 - 1003 To 2203/LogTime.xlsx
@@ -191,8 +191,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Table24" displayName="Table24" ref="A1:M9" totalsRowShown="0" headerRowDxfId="2">
-  <autoFilter ref="A1:M9"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Table24" displayName="Table24" ref="A1:M8" totalsRowShown="0" headerRowDxfId="2">
+  <autoFilter ref="A1:M8"/>
   <tableColumns count="13">
     <tableColumn id="1" name="Column1"/>
     <tableColumn id="2" name="10/03/2014"/>
@@ -523,8 +523,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M8"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="M21" sqref="M21"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A9" sqref="A9:XFD9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/docs/sprint 2 - 1003 To 2203/LogTime.xlsx
+++ b/docs/sprint 2 - 1003 To 2203/LogTime.xlsx
@@ -9,14 +9,14 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7905"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="14160" windowHeight="6165" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="ANLT" sheetId="1" r:id="rId1"/>
     <sheet name="QUANGD" sheetId="2" r:id="rId2"/>
     <sheet name="ANHDT" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="0"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="31">
   <si>
     <t>Nhận update từ phía A.Hoàng</t>
   </si>
@@ -110,12 +110,6 @@
   </si>
   <si>
     <t xml:space="preserve">Tài liệu - Danh sách các màn hình sẽ làm </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Thời gian đã sử dụng </t>
-  </si>
-  <si>
-    <t>Mức độ Busy</t>
   </si>
   <si>
     <t>Mock-up wishlist</t>
@@ -523,8 +517,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A9" sqref="A9:XFD9"/>
+    <sheetView topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="P9" sqref="P9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -664,6 +658,9 @@
       <c r="G6">
         <v>1</v>
       </c>
+      <c r="L6">
+        <v>3</v>
+      </c>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
@@ -675,7 +672,7 @@
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="M8">
         <v>3</v>
@@ -691,10 +688,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:S13"/>
+  <dimension ref="A1:S9"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="L7" sqref="L7"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A13" sqref="A12:A13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -727,7 +724,7 @@
         <v>10</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="I1" s="1" t="s">
         <v>11</v>
@@ -821,16 +818,6 @@
       </c>
       <c r="D9">
         <v>4</v>
-      </c>
-    </row>
-    <row r="12" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="13" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
-        <v>29</v>
       </c>
     </row>
   </sheetData>
@@ -881,7 +868,7 @@
         <v>10</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="I1" s="1" t="s">
         <v>11</v>
@@ -904,7 +891,7 @@
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="B2">
         <v>4</v>
